--- a/trunk/Pengy game/Documentation/Logs/log_erik.xlsx
+++ b/trunk/Pengy game/Documentation/Logs/log_erik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -90,22 +90,7 @@
     <t>Design multiple kinds of surfaces, enemy implementation</t>
   </si>
   <si>
-    <t>Enemy factory</t>
-  </si>
-  <si>
     <t>Design</t>
-  </si>
-  <si>
-    <t>Tiles for the snow level</t>
-  </si>
-  <si>
-    <t>Snowlevel implementation, all tiles and some surfaces</t>
-  </si>
-  <si>
-    <t>Snowlevel</t>
-  </si>
-  <si>
-    <t>SnowLevel, Render optimization</t>
   </si>
   <si>
     <t>Analysis and Realisation</t>
@@ -522,7 +507,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -857,9 +842,6 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
@@ -876,10 +858,7 @@
         <v>0.14583333333333331</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -899,9 +878,6 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
@@ -920,9 +896,6 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
@@ -940,9 +913,6 @@
       </c>
       <c r="E21" t="s">
         <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -957,10 +927,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -987,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1005,10 +975,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1029,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
